--- a/port.xlsx
+++ b/port.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/code/cloud-config-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13577556-3528-B744-8E51-8A901929E9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEFD2C-7749-8340-98CE-CAB305EEADD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{D4200A44-9A27-834F-9949-4627A935B355}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test-cloud-config-server</t>
+    <t>test-cloud-config-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/port.xlsx
+++ b/port.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/code/cloud-config-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEFD2C-7749-8340-98CE-CAB305EEADD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F434A-EE2D-5445-B850-2AC0FFF177FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{D4200A44-9A27-834F-9949-4627A935B355}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test-cloud-config-</t>
+    <t>test-cloud-config-client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,9 +88,8 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="等线 (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -451,7 +450,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>

--- a/port.xlsx
+++ b/port.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/code/cloud-config-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F434A-EE2D-5445-B850-2AC0FFF177FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB71DDE7-76BC-894D-8E82-46DDA6FBB66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{D4200A44-9A27-834F-9949-4627A935B355}"/>
+    <workbookView xWindow="4820" yWindow="2600" windowWidth="28240" windowHeight="17440" xr2:uid="{D4200A44-9A27-834F-9949-4627A935B355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-config-server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-cloud-config-client</t>
+    <t>端口/说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目父工程</t>
+  </si>
+  <si>
+    <t>common-parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有项目的置文件夹以，其中share-config-dev.yml为通用配置文件</t>
+  </si>
+  <si>
+    <t>cloud-config-file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为基础配置文件，是每个项目所必需依赖的，pom文件没有依赖任何jar只是定义了项目的最小配置，如项目的环境与分支，配置中心的相关属性，eureka相关配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common-core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库相关的配置</t>
+  </si>
+  <si>
+    <t>common-feign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程调用服务所需的依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含common-core,web服务所需要的依赖，如通用controller,hystrix,链路追踪,监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cloud-config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-server</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,7 +134,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
@@ -86,9 +142,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -120,17 +196,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,20 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B9A8D-92E4-074B-ABA9-2918425BA724}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="63.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="110.83203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,17 +553,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="32">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>8021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:2" ht="64">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="88" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="32">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="64">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
